--- a/nbs/test_data/semi_structured_spreadsheet.xlsx
+++ b/nbs/test_data/semi_structured_spreadsheet.xlsx
@@ -1363,9 +1363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1377,7 +1377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7238520" y="190440"/>
-          <a:ext cx="1158840" cy="246960"/>
+          <a:ext cx="1158480" cy="246600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1452,28 +1452,504 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>134640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1143720</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>751320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Rounded Rectangle 1">
+        <xdr:cNvPr id="1" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="1371600"/>
+          <a:ext cx="2071440" cy="475200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffca08"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="bc9505"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-AU" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="6b471b"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Column headings span two or more rows.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>529200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1519560" y="341640"/>
+          <a:ext cx="1710720" cy="1027800"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="ffca08"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>529200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1519560" y="532800"/>
+          <a:ext cx="1701360" cy="837360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="ffca08"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>78480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>55080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>75240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4940640" y="1619280"/>
+          <a:ext cx="1740960" cy="360720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffca08"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="bc9505"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-AU" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="6b471b"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Total column(s).</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5720760" y="322560"/>
+          <a:ext cx="1314720" cy="1294200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="ffca08"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>846720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2147040" y="2238120"/>
+          <a:ext cx="2330280" cy="361080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffca08"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="bc9505"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-AU" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="6b471b"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Blank column for formatting.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>310680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2971080" y="1200240"/>
+          <a:ext cx="437040" cy="1036800"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="ffca08"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>537840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 22">
           <a:hlinkClick r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16500960" y="56160"/>
-          <a:ext cx="1009080" cy="246960"/>
+          <a:off x="8942040" y="212760"/>
+          <a:ext cx="1317240" cy="246600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1549,503 +2025,27 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>314280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>751680</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>446400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457200" y="1371600"/>
-          <a:ext cx="2071800" cy="475560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffca08"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="bc9505"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-AU" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="6b471b"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Column headings span two or more rows.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>529200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1519200" y="342360"/>
-          <a:ext cx="1711080" cy="1028160"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="ffca08"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>529200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1519200" y="532080"/>
-          <a:ext cx="1701720" cy="837720"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="ffca08"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4940640" y="1619280"/>
-          <a:ext cx="1741320" cy="361080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffca08"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="bc9505"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-AU" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="6b471b"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Total column(s).</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5720400" y="323280"/>
-          <a:ext cx="1315080" cy="1294560"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="ffca08"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>369720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>847080</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2147040" y="2238120"/>
-          <a:ext cx="2330640" cy="361440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffca08"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="bc9505"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-AU" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="6b471b"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Blank column for formatting.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2970360" y="1199520"/>
-          <a:ext cx="437400" cy="1037160"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="ffca08"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>537840</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>336600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 22">
+        <xdr:cNvPr id="9" name="Rounded Rectangle 1">
           <a:hlinkClick r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8942040" y="212760"/>
-          <a:ext cx="1317600" cy="246960"/>
+          <a:off x="314280" y="28440"/>
+          <a:ext cx="1300320" cy="246600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2120,16 +2120,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>446760</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>246600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2140,8 +2140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314280" y="28440"/>
-          <a:ext cx="1300680" cy="246960"/>
+          <a:off x="9563400" y="266400"/>
+          <a:ext cx="1216800" cy="246600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2216,16 +2216,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>366120</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>246960</xdr:rowOff>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2236,104 +2236,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9563400" y="266400"/>
-          <a:ext cx="1217160" cy="246960"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="ffce4b"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="ffc908"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000"/>
-        </a:gradFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw algn="ctr" blurRad="57240" dir="5400000" dist="19080" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-AU" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="6b471b"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Go to Index</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 1">
-          <a:hlinkClick r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="11947320" y="134640"/>
-          <a:ext cx="1317960" cy="246960"/>
+          <a:ext cx="1317600" cy="246600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -38448,12 +38352,11 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
